--- a/BMS/Datasheets/SAMC21_Pinout.xlsx
+++ b/BMS/Datasheets/SAMC21_Pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Desktop\_work\X2City\BatteryManagementSystem\Datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Desktop\_work\X2City\BMS\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8086394D-5F0A-4554-9C77-0FAFFFD88EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652BE3BF-F650-45ED-BFA5-7F6FF081CF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B9B784E2-40E7-46A1-B6A9-A010A1749725}"/>
+    <workbookView xWindow="8505" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{B9B784E2-40E7-46A1-B6A9-A010A1749725}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMC21" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="200">
   <si>
     <t>PORT_PA11</t>
   </si>
@@ -663,7 +663,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -837,6 +843,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -859,13 +869,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>10182</xdr:colOff>
+      <xdr:colOff>16751</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>104445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1586733</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3613</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76240</xdr:rowOff>
     </xdr:to>
@@ -897,7 +907,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9587734" y="511721"/>
+          <a:off x="9594303" y="511721"/>
           <a:ext cx="2338551" cy="3243140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1285,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC464E6-459F-468A-901F-AD48611239EA}">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +1753,7 @@
         <v>153</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H10" s="5"/>
@@ -1756,7 +1766,9 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
+      <c r="N10" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="Q10" s="13" t="s">
         <v>199</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>156</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="18" t="s">
         <v>155</v>
       </c>
       <c r="H11" s="7"/>
@@ -1814,7 +1826,9 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="3"/>
+      <c r="N11" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="Q11" s="13" t="s">
         <v>198</v>
       </c>
